--- a/example/singleConvert/itemTable.xlsx
+++ b/example/singleConvert/itemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Tool\xlsx-fbs\example\singleConvert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/singleConvert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5905616E-7665-4CED-B5D6-83B244BF7C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B891A9-124E-F847-B33A-4EE30C07DDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="46080" windowHeight="12120" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
+    <workbookView xWindow="0" yWindow="2300" windowWidth="38400" windowHeight="12120" activeTab="1" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
   </bookViews>
   <sheets>
     <sheet name="itemTable" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,6 +487,10 @@
   </si>
   <si>
     <t>[struct@StructTest]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +498,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -889,17 +893,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CA05FC-6E05-034A-99E0-E203D5E0B3FD}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +938,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>101</v>
       </c>
@@ -957,7 +961,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>102</v>
       </c>
@@ -974,7 +978,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -994,7 +998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -1053,19 +1057,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D200DDE-BF23-1848-81C7-B5C01918BC7E}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
@@ -1082,7 +1086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -1263,9 +1267,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1343,9 +1347,9 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1353,7 +1357,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1391,9 +1395,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1401,17 +1405,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1430,9 +1434,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1452,7 +1456,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1512,7 +1516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1586,13 +1590,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1628,7 +1632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1653,7 +1657,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -1682,9 +1686,9 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1751,9 +1755,9 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>

--- a/example/singleConvert/itemTable.xlsx
+++ b/example/singleConvert/itemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/singleConvert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B891A9-124E-F847-B33A-4EE30C07DDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7733928-89F1-8347-A046-2E165F73F140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2300" windowWidth="38400" windowHeight="12120" activeTab="1" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
   </bookViews>
@@ -311,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型推断仅使用于主表的属性页，自定义结构请自行填写正确类型，我不想再堆屎了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,6 +487,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型推断仅使用于主表的属性页，自定义结构请自行填写正确类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +935,7 @@
         <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1018,10 +1018,10 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>106</v>
-      </c>
-      <c r="K5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1041,10 +1041,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1077,13 +1077,13 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1173,7 +1173,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1190,7 +1190,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1201,10 +1201,10 @@
         <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1218,7 +1218,7 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1226,27 +1226,27 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1274,13 +1274,13 @@
         <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1288,7 +1288,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1302,13 +1302,13 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1316,7 +1316,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1327,7 +1327,7 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1354,7 +1354,7 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1370,15 +1370,15 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1399,25 +1399,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1450,10 +1450,10 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>10015</v>
@@ -1481,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>10016</v>
@@ -1501,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>43</v>
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>112</v>
@@ -1541,7 +1541,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -1561,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1645,13 +1645,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -1659,13 +1659,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1693,13 +1693,13 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1724,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1759,24 +1759,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1801,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
